--- a/data/han/총량/조종천3_2015.xlsx
+++ b/data/han/총량/조종천3_2015.xlsx
@@ -221,70 +221,70 @@
     <t>20150128</t>
   </si>
   <si>
-    <t>2015-02-30 12:00</t>
+    <t>2015-02-15 12:00</t>
   </si>
   <si>
     <t>20150211</t>
   </si>
   <si>
+    <t>2015-03-06 12:00</t>
+  </si>
+  <si>
+    <t>20150304</t>
+  </si>
+  <si>
+    <t>2015-03-12 12:00</t>
+  </si>
+  <si>
+    <t>2회차</t>
+  </si>
+  <si>
+    <t>20150311</t>
+  </si>
+  <si>
     <t>2015-03-18 12:00</t>
   </si>
   <si>
-    <t>20150304</t>
+    <t>3회차</t>
+  </si>
+  <si>
+    <t>20150318</t>
   </si>
   <si>
     <t>2015-03-24 12:00</t>
   </si>
   <si>
-    <t>2회차</t>
-  </si>
-  <si>
-    <t>20150311</t>
-  </si>
-  <si>
-    <t>2015-03-30 12:00</t>
-  </si>
-  <si>
-    <t>3회차</t>
-  </si>
-  <si>
-    <t>20150318</t>
-  </si>
-  <si>
-    <t>2015-03-36 12:00</t>
-  </si>
-  <si>
     <t>4회차</t>
   </si>
   <si>
     <t>20150326</t>
   </si>
   <si>
-    <t>2015-04-35 12:00</t>
+    <t>2015-04-05 12:00</t>
   </si>
   <si>
     <t>20150402</t>
   </si>
   <si>
-    <t>2015-04-40 12:00</t>
+    <t>2015-04-10 12:00</t>
   </si>
   <si>
     <t>20150410</t>
   </si>
   <si>
-    <t>2015-04-45 12:00</t>
+    <t>2015-04-15 12:00</t>
   </si>
   <si>
     <t>20150417</t>
   </si>
   <si>
-    <t>2015-04-50 12:00</t>
+    <t>2015-04-20 12:00</t>
   </si>
   <si>
     <t>20150423</t>
   </si>
   <si>
-    <t>2015-04-55 12:00</t>
+    <t>2015-04-25 12:00</t>
   </si>
   <si>
     <t>5회차</t>
@@ -293,97 +293,109 @@
     <t>20150428</t>
   </si>
   <si>
-    <t>2015-05-72 12:00</t>
+    <t>2015-05-06 12:00</t>
   </si>
   <si>
     <t>20150507</t>
   </si>
   <si>
-    <t>2015-05-78 12:00</t>
+    <t>2015-05-12 12:00</t>
   </si>
   <si>
     <t>20150513</t>
   </si>
   <si>
-    <t>2015-05-84 12:00</t>
+    <t>2015-05-18 12:00</t>
   </si>
   <si>
     <t>20150520</t>
   </si>
   <si>
-    <t>2015-05-90 12:00</t>
+    <t>2015-05-24 12:00</t>
   </si>
   <si>
     <t>20150528</t>
   </si>
   <si>
-    <t>2015-06-10 12:00</t>
+    <t>2015-06-06 12:00</t>
+  </si>
+  <si>
+    <t>20150603</t>
+  </si>
+  <si>
+    <t>2015-06-12 12:00</t>
   </si>
   <si>
     <t>20150610</t>
   </si>
   <si>
+    <t>2015-06-18 12:00</t>
+  </si>
+  <si>
     <t>20150618</t>
   </si>
   <si>
-    <t>2015-06-11 12:00</t>
+    <t>2015-06-24 12:00</t>
   </si>
   <si>
     <t>20150624</t>
   </si>
   <si>
-    <t>2015-06-96 12:00</t>
-  </si>
-  <si>
-    <t>20150603</t>
+    <t>2015-07-05 12:00</t>
+  </si>
+  <si>
+    <t>20150702</t>
   </si>
   <si>
     <t>2015-07-10 12:00</t>
   </si>
   <si>
-    <t>20150702</t>
-  </si>
-  <si>
     <t>20150708</t>
   </si>
   <si>
-    <t>2015-07-11 12:00</t>
+    <t>2015-07-15 12:00</t>
   </si>
   <si>
     <t>20150716</t>
   </si>
   <si>
+    <t>2015-07-20 12:00</t>
+  </si>
+  <si>
     <t>20150722</t>
   </si>
   <si>
-    <t>2015-07-12 12:00</t>
+    <t>2015-07-25 12:00</t>
   </si>
   <si>
     <t>20150729</t>
   </si>
   <si>
-    <t>2015-08-20 12:00</t>
+    <t>2015-08-08 12:00</t>
   </si>
   <si>
     <t>20150812</t>
   </si>
   <si>
+    <t>2015-08-16 12:00</t>
+  </si>
+  <si>
     <t>20150820</t>
   </si>
   <si>
-    <t>2015-08-21 12:00</t>
+    <t>2015-08-24 12:00</t>
   </si>
   <si>
     <t>20150827</t>
   </si>
   <si>
-    <t>2015-09-16 12:00</t>
+    <t>2015-09-06 12:00</t>
   </si>
   <si>
     <t>20150903</t>
   </si>
   <si>
-    <t>2015-09-17 12:00</t>
+    <t>2015-09-12 12:00</t>
   </si>
   <si>
     <t>20150910</t>
@@ -395,52 +407,61 @@
     <t>20150917</t>
   </si>
   <si>
+    <t>2015-09-24 12:00</t>
+  </si>
+  <si>
     <t>20150924</t>
   </si>
   <si>
-    <t>2015-10-25 12:00</t>
+    <t>2015-10-08 12:00</t>
   </si>
   <si>
     <t>20151007</t>
   </si>
   <si>
-    <t>2015-10-26 12:00</t>
+    <t>2015-10-16 12:00</t>
   </si>
   <si>
     <t>20151014</t>
   </si>
   <si>
-    <t>2015-10-27 12:00</t>
+    <t>2015-10-24 12:00</t>
   </si>
   <si>
     <t>20151028</t>
   </si>
   <si>
-    <t>2015-11-21 12:00</t>
+    <t>2015-11-06 12:00</t>
   </si>
   <si>
     <t>20151104</t>
   </si>
   <si>
+    <t>2015-11-12 12:00</t>
+  </si>
+  <si>
     <t>20151112</t>
   </si>
   <si>
-    <t>2015-11-22 12:00</t>
+    <t>2015-11-18 12:00</t>
   </si>
   <si>
     <t>20151119</t>
   </si>
   <si>
+    <t>2015-11-24 12:00</t>
+  </si>
+  <si>
     <t>20151126</t>
   </si>
   <si>
-    <t>2015-12-39 12:00</t>
+    <t>2015-12-10 12:00</t>
   </si>
   <si>
     <t>20151203</t>
   </si>
   <si>
-    <t>2015-12-40 12:00</t>
+    <t>2015-12-20 12:00</t>
   </si>
   <si>
     <t>20151210</t>
@@ -775,68 +796,68 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="17.44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.67" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.78" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.78" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.78" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.22" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.56" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.33" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.33" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.56" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.33" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.67" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.89" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.11" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.67" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.67" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.89" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.44" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.78" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.89" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.11" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.56" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.89" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.89" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.89" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.22" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.44" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.67" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.22" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.22" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.44" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.67" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.33" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.86" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.57" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.71" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.86" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.57" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.86" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.43" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.43" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.71" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.43" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.43" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.43" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.71" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.71" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.71" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.71" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.71" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.14" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.29" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.29" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.57" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.29" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.29" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.29" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.57" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.14" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.29" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.71" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.43" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.43" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.71" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.43" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.29" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.29" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.71" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2232,7 +2253,7 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
@@ -2256,63 +2277,63 @@
         <v>102</v>
       </c>
       <c r="AC17" s="4">
-        <v>0.441</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="AD17">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE17" s="5">
-        <v>8.5999999999999996</v>
+        <v>8.5</v>
       </c>
       <c r="AF17" s="5">
-        <v>9.3000000000000007</v>
+        <v>9.9000000000000004</v>
       </c>
       <c r="AG17" s="5">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="AH17" s="5">
-        <v>3.6000000000000001</v>
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="AH17">
+        <v>4</v>
       </c>
       <c r="AI17" s="5">
-        <v>6.7000000000000002</v>
+        <v>7.4000000000000004</v>
       </c>
       <c r="AJ17">
-        <v>218</v>
-      </c>
-      <c r="AK17" s="4">
-        <v>0.95099999999999996</v>
+        <v>212</v>
+      </c>
+      <c r="AK17" s="7">
+        <v>1.0900000000000001</v>
       </c>
       <c r="AL17" s="4">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="AM17" s="6">
-        <v>0.44340000000000002</v>
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="AM17" s="4">
+        <v>0.57899999999999996</v>
       </c>
       <c r="AN17" s="4">
+        <v>0.021000000000000001</v>
+      </c>
+      <c r="AO17" s="4">
         <v>0.025999999999999999</v>
       </c>
-      <c r="AO17" s="4">
-        <v>0.024</v>
-      </c>
       <c r="AP17" s="4">
-        <v>0.014</v>
+        <v>0.014999999999999999</v>
       </c>
       <c r="AQ17" s="4">
         <v>0.0030000000000000001</v>
       </c>
       <c r="AR17" s="5">
-        <v>7.2999999999999998</v>
-      </c>
-      <c r="AS17" s="5">
-        <v>2.7000000000000002</v>
+        <v>9.0999999999999996</v>
+      </c>
+      <c r="AS17">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -2333,66 +2354,66 @@
         <v>67</v>
       </c>
       <c r="AB18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AC18" s="4">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="AD18" s="5">
-        <v>30.100000000000001</v>
+        <v>0.441</v>
+      </c>
+      <c r="AD18">
+        <v>29</v>
       </c>
       <c r="AE18" s="5">
-        <v>8.6999999999999993</v>
+        <v>8.5999999999999996</v>
       </c>
       <c r="AF18" s="5">
-        <v>9.9000000000000004</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AG18" s="5">
-        <v>1.3</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="AH18" s="5">
-        <v>4.0999999999999996</v>
+        <v>3.6000000000000001</v>
       </c>
       <c r="AI18" s="5">
         <v>6.7000000000000002</v>
       </c>
       <c r="AJ18">
-        <v>221</v>
-      </c>
-      <c r="AK18" s="7">
-        <v>0.76000000000000001</v>
+        <v>218</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>0.95099999999999996</v>
       </c>
       <c r="AL18" s="4">
-        <v>0.73099999999999998</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="AM18" s="6">
-        <v>0.36559999999999998</v>
+        <v>0.44340000000000002</v>
       </c>
       <c r="AN18" s="4">
-        <v>0.028000000000000001</v>
+        <v>0.025999999999999999</v>
       </c>
       <c r="AO18" s="4">
-        <v>0.021999999999999999</v>
+        <v>0.024</v>
       </c>
       <c r="AP18" s="4">
-        <v>0.0089999999999999993</v>
+        <v>0.014</v>
       </c>
       <c r="AQ18" s="4">
-        <v>0.0060000000000000001</v>
+        <v>0.0030000000000000001</v>
       </c>
       <c r="AR18" s="5">
-        <v>8.4000000000000004</v>
+        <v>7.2999999999999998</v>
       </c>
       <c r="AS18" s="5">
-        <v>4.4000000000000004</v>
+        <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
         <v>64</v>
@@ -2413,66 +2434,66 @@
         <v>67</v>
       </c>
       <c r="AB19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC19" s="4">
-        <v>0.53300000000000003</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="AD19" s="5">
-        <v>29.899999999999999</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="AE19" s="5">
         <v>8.6999999999999993</v>
       </c>
       <c r="AF19" s="5">
-        <v>7.7999999999999998</v>
+        <v>9.9000000000000004</v>
       </c>
       <c r="AG19" s="5">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AH19" s="5">
-        <v>3.7999999999999998</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AI19" s="5">
-        <v>6.2000000000000002</v>
+        <v>6.7000000000000002</v>
       </c>
       <c r="AJ19">
-        <v>234</v>
-      </c>
-      <c r="AK19" s="4">
-        <v>0.55500000000000005</v>
+        <v>221</v>
+      </c>
+      <c r="AK19" s="7">
+        <v>0.76000000000000001</v>
       </c>
       <c r="AL19" s="4">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="AM19" s="4">
-        <v>0.35899999999999999</v>
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="AM19" s="6">
+        <v>0.36559999999999998</v>
       </c>
       <c r="AN19" s="4">
-        <v>0.021000000000000001</v>
+        <v>0.028000000000000001</v>
       </c>
       <c r="AO19" s="4">
-        <v>0.024</v>
+        <v>0.021999999999999999</v>
       </c>
       <c r="AP19" s="4">
-        <v>0.010999999999999999</v>
+        <v>0.0089999999999999993</v>
       </c>
       <c r="AQ19" s="4">
-        <v>0.0030000000000000001</v>
+        <v>0.0060000000000000001</v>
       </c>
       <c r="AR19" s="5">
-        <v>6.2999999999999998</v>
+        <v>8.4000000000000004</v>
       </c>
       <c r="AS19" s="5">
-        <v>3.1000000000000001</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
         <v>64</v>
@@ -2493,63 +2514,63 @@
         <v>67</v>
       </c>
       <c r="AB20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC20" s="4">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>29.899999999999999</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>7.7999999999999998</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>3.7999999999999998</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>6.2000000000000002</v>
+      </c>
+      <c r="AJ20">
+        <v>234</v>
+      </c>
+      <c r="AK20" s="4">
         <v>0.55500000000000005</v>
       </c>
-      <c r="AD20">
-        <v>27</v>
-      </c>
-      <c r="AE20" s="5">
-        <v>8.5</v>
-      </c>
-      <c r="AF20" s="5">
-        <v>9.9000000000000004</v>
-      </c>
-      <c r="AG20" s="5">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="AH20">
-        <v>4</v>
-      </c>
-      <c r="AI20" s="5">
-        <v>7.4000000000000004</v>
-      </c>
-      <c r="AJ20">
-        <v>212</v>
-      </c>
-      <c r="AK20" s="7">
-        <v>1.0900000000000001</v>
-      </c>
       <c r="AL20" s="4">
-        <v>1.0509999999999999</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="AM20" s="4">
-        <v>0.57899999999999996</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="AN20" s="4">
         <v>0.021000000000000001</v>
       </c>
       <c r="AO20" s="4">
-        <v>0.025999999999999999</v>
+        <v>0.024</v>
       </c>
       <c r="AP20" s="4">
-        <v>0.014999999999999999</v>
+        <v>0.010999999999999999</v>
       </c>
       <c r="AQ20" s="4">
         <v>0.0030000000000000001</v>
       </c>
       <c r="AR20" s="5">
-        <v>9.0999999999999996</v>
-      </c>
-      <c r="AS20">
-        <v>3</v>
+        <v>6.2999999999999998</v>
+      </c>
+      <c r="AS20" s="5">
+        <v>3.1000000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
         <v>63</v>
@@ -2573,7 +2594,7 @@
         <v>67</v>
       </c>
       <c r="AB21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC21" s="4">
         <v>0.54800000000000004</v>
@@ -2629,7 +2650,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
         <v>74</v>
@@ -2653,7 +2674,7 @@
         <v>67</v>
       </c>
       <c r="AB22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC22" s="4">
         <v>0.751</v>
@@ -2709,7 +2730,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -2733,7 +2754,7 @@
         <v>67</v>
       </c>
       <c r="AB23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC23" s="4">
         <v>2.653</v>
@@ -2789,7 +2810,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
         <v>80</v>
@@ -2813,7 +2834,7 @@
         <v>67</v>
       </c>
       <c r="AB24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AC24" s="4">
         <v>1.5349999999999999</v>
@@ -2869,7 +2890,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
         <v>91</v>
@@ -2893,7 +2914,7 @@
         <v>67</v>
       </c>
       <c r="AB25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AC25" s="4">
         <v>16.215</v>
@@ -2949,7 +2970,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
@@ -2973,7 +2994,7 @@
         <v>67</v>
       </c>
       <c r="AB26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AC26" s="4">
         <v>3.5510000000000002</v>
@@ -3029,7 +3050,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
         <v>74</v>
@@ -3053,7 +3074,7 @@
         <v>67</v>
       </c>
       <c r="AB27" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AC27" s="4">
         <v>2.1019999999999999</v>
@@ -3109,7 +3130,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -3133,7 +3154,7 @@
         <v>67</v>
       </c>
       <c r="AB28" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AC28" s="4">
         <v>1.5589999999999999</v>
@@ -3189,7 +3210,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
@@ -3213,7 +3234,7 @@
         <v>67</v>
       </c>
       <c r="AB29" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AC29" s="4">
         <v>0.84799999999999998</v>
@@ -3269,7 +3290,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
         <v>74</v>
@@ -3293,7 +3314,7 @@
         <v>67</v>
       </c>
       <c r="AB30" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AC30" s="4">
         <v>1.169</v>
@@ -3349,7 +3370,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
@@ -3373,7 +3394,7 @@
         <v>67</v>
       </c>
       <c r="AB31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AC31" s="4">
         <v>0.58899999999999997</v>
@@ -3429,7 +3450,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
         <v>80</v>
@@ -3453,7 +3474,7 @@
         <v>67</v>
       </c>
       <c r="AB32" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AC32" s="4">
         <v>0.58899999999999997</v>
@@ -3509,7 +3530,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
@@ -3533,7 +3554,7 @@
         <v>67</v>
       </c>
       <c r="AB33" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AC33" s="4">
         <v>1.169</v>
@@ -3589,7 +3610,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
         <v>74</v>
@@ -3613,7 +3634,7 @@
         <v>67</v>
       </c>
       <c r="AB34" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AC34" s="4">
         <v>1.169</v>
@@ -3669,7 +3690,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
@@ -3693,7 +3714,7 @@
         <v>67</v>
       </c>
       <c r="AB35" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AC35" s="4">
         <v>2.0219999999999998</v>
@@ -3749,7 +3770,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
         <v>63</v>
@@ -3773,7 +3794,7 @@
         <v>67</v>
       </c>
       <c r="AB36" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AC36" s="4">
         <v>0.84799999999999998</v>
@@ -3829,7 +3850,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B37" t="s">
         <v>74</v>
@@ -3853,7 +3874,7 @@
         <v>67</v>
       </c>
       <c r="AB37" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AC37" s="4">
         <v>2.5640000000000001</v>
@@ -3909,7 +3930,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B38" t="s">
         <v>77</v>
@@ -3933,7 +3954,7 @@
         <v>67</v>
       </c>
       <c r="AB38" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AC38" s="4">
         <v>3.5369999999999999</v>
@@ -3989,7 +4010,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
@@ -4013,7 +4034,7 @@
         <v>67</v>
       </c>
       <c r="AB39" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AC39" s="4">
         <v>4.2990000000000004</v>
@@ -4069,7 +4090,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s">
         <v>63</v>
@@ -4093,7 +4114,7 @@
         <v>67</v>
       </c>
       <c r="AB40" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AC40" s="4">
         <v>8.9909999999999997</v>
@@ -4149,7 +4170,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B41" t="s">
         <v>74</v>
@@ -4173,7 +4194,7 @@
         <v>67</v>
       </c>
       <c r="AB41" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AC41" s="4">
         <v>2.867</v>
